--- a/animal_input.xlsx
+++ b/animal_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mijn_drive\our_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027CDDF2-D5D1-4929-9549-3A60FA23D1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B915D56-0D6D-4423-B3AC-77AED6436C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="animal_input" sheetId="1" r:id="rId1"/>
@@ -219,12 +219,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -239,12 +245,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +470,10 @@
   <dimension ref="A1:Y982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q30" sqref="Q30"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,10 +678,10 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="1">
@@ -1195,10 +1202,10 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="1">
@@ -1260,10 +1267,10 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="1">
@@ -1325,10 +1332,10 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1">
@@ -1390,10 +1397,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1">
@@ -1455,10 +1462,10 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="1">
@@ -1650,10 +1657,10 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="1">
@@ -1715,10 +1722,10 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="1">
@@ -1780,10 +1787,10 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="1">
@@ -1845,10 +1852,10 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="1">

--- a/animal_input.xlsx
+++ b/animal_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B915D56-0D6D-4423-B3AC-77AED6436C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507D320F-B322-404C-B4C0-9F42799C7B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,7 +219,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,13 +251,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +480,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -678,10 +685,10 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="1">

--- a/animal_input.xlsx
+++ b/animal_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507D320F-B322-404C-B4C0-9F42799C7B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BC90CC-703F-490B-AA1C-11A8B50AE92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/animal_input.xlsx
+++ b/animal_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BC90CC-703F-490B-AA1C-11A8B50AE92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E26039-C665-46EF-9C69-ED860EB6A049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14385" yWindow="0" windowWidth="14415" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="animal_input" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>unit_of_measurement</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>LU/head</t>
+  </si>
+  <si>
+    <t>g/head/year</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +241,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -251,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -259,6 +268,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,13 +484,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y982"/>
+  <dimension ref="A1:Y978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -555,10 +565,10 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1">
@@ -620,10 +630,10 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1">
@@ -750,10 +760,10 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="1">
@@ -815,10 +825,10 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1">
@@ -880,10 +890,10 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1">
@@ -945,10 +955,10 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1">
@@ -1010,10 +1020,10 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1">
@@ -1075,10 +1085,10 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1">
@@ -1140,10 +1150,10 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1">
@@ -1209,10 +1219,10 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="1">
@@ -1274,10 +1284,10 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="1">
@@ -1339,10 +1349,10 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1">
@@ -1404,10 +1414,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1">
@@ -1469,75 +1479,75 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
+      <c r="B16" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="1">
-        <v>15.198410000000001</v>
+        <v>15198.410000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>60.11965</v>
+        <v>60119.65</v>
       </c>
       <c r="E16" s="1">
-        <v>64.988029999999995</v>
+        <v>64988.029999999992</v>
       </c>
       <c r="F16" s="1">
-        <v>66.859780000000001</v>
+        <v>66859.78</v>
       </c>
       <c r="G16" s="1">
-        <v>66.859780000000001</v>
+        <v>66859.78</v>
       </c>
       <c r="H16" s="1">
-        <v>56.726395889999999</v>
+        <v>56726.39589</v>
       </c>
       <c r="I16" s="1">
-        <v>22.241455800000001</v>
+        <v>22241.4558</v>
       </c>
       <c r="J16" s="1">
-        <v>17.25</v>
+        <v>17250</v>
       </c>
       <c r="K16" s="1">
-        <v>12.998239999999999</v>
+        <v>12998.24</v>
       </c>
       <c r="L16" s="1">
-        <v>22.241455850000001</v>
+        <v>22241.455850000002</v>
       </c>
       <c r="M16" s="1">
-        <v>66.602080700000002</v>
+        <v>66602.080700000006</v>
       </c>
       <c r="N16" s="1">
-        <v>85.971040299999999</v>
+        <v>85971.040299999993</v>
       </c>
       <c r="O16" s="1">
-        <v>85.971040299999999</v>
+        <v>85971.040299999993</v>
       </c>
       <c r="P16" s="1">
-        <v>85.971040299999999</v>
+        <v>85971.040299999993</v>
       </c>
       <c r="Q16" s="1">
-        <v>85.971040299999999</v>
+        <v>85971.040299999993</v>
       </c>
       <c r="R16" s="1">
-        <v>85.971040299999999</v>
+        <v>85971.040299999993</v>
       </c>
       <c r="S16" s="1">
-        <v>85.971040299999999</v>
+        <v>85971.040299999993</v>
       </c>
       <c r="T16" s="1">
-        <v>85.971040299999999</v>
+        <v>85971.040299999993</v>
       </c>
       <c r="U16" s="1">
-        <v>85.971040299999999</v>
+        <v>85971.040299999993</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="1">
@@ -1599,10 +1609,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="1">
@@ -2879,10 +2889,6 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/animal_input.xlsx
+++ b/animal_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E26039-C665-46EF-9C69-ED860EB6A049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA93AA0D-3296-4EE4-BB37-AF4C4E0178C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="0" windowWidth="14415" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16365" yWindow="0" windowWidth="12435" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="animal_input" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>unit_of_measurement</t>
   </si>
@@ -173,18 +173,12 @@
     <t>subsidies_gained</t>
   </si>
   <si>
-    <t>€/head</t>
-  </si>
-  <si>
     <t>general_labour_costs</t>
   </si>
   <si>
     <t>hrs/head/year</t>
   </si>
   <si>
-    <t>barn_cost</t>
-  </si>
-  <si>
     <t>€/head/year</t>
   </si>
   <si>
@@ -198,6 +192,9 @@
   </si>
   <si>
     <t>g/head/year</t>
+  </si>
+  <si>
+    <t>barn_costs</t>
   </si>
 </sst>
 </file>
@@ -222,24 +219,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -260,15 +245,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +473,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -565,10 +548,10 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1">
@@ -630,10 +613,10 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1">
@@ -695,11 +678,11 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>52</v>
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>0.4</v>
@@ -760,10 +743,10 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="1">
@@ -825,10 +808,10 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1">
@@ -890,10 +873,10 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1">
@@ -955,10 +938,10 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1">
@@ -1020,10 +1003,10 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1">
@@ -1085,10 +1068,10 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1">
@@ -1150,10 +1133,10 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1">
@@ -1219,10 +1202,10 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="1">
@@ -1284,10 +1267,10 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="1">
@@ -1349,10 +1332,10 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1">
@@ -1414,10 +1397,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1">
@@ -1479,11 +1462,11 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>53</v>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="1">
         <v>15198.410000000002</v>
@@ -1544,10 +1527,10 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="1">
@@ -1609,10 +1592,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="1">
@@ -1678,7 +1661,7 @@
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1740,10 +1723,10 @@
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C20" s="1">
         <v>14.148230000000002</v>
@@ -1805,10 +1788,10 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
         <v>3576.8</v>
@@ -1870,7 +1853,7 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>25</v>

--- a/animal_input.xlsx
+++ b/animal_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA93AA0D-3296-4EE4-BB37-AF4C4E0178C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6244877C-7049-466C-AE30-C12B72532B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16365" yWindow="0" windowWidth="12435" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="animal_input" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>unit_of_measurement</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>g/head/year</t>
-  </si>
-  <si>
-    <t>barn_costs</t>
   </si>
 </sst>
 </file>
@@ -467,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y978"/>
+  <dimension ref="A1:Y977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1788,134 +1785,70 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
-        <v>3576.8</v>
+        <v>1393.2</v>
       </c>
       <c r="D21" s="1">
-        <v>5365.2</v>
+        <v>1393.2</v>
       </c>
       <c r="E21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="F21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="G21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="H21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="I21" s="1">
-        <v>5365.2</v>
+        <v>1393.2</v>
       </c>
       <c r="J21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="K21" s="1">
-        <v>3576.8</v>
+        <v>1393.2</v>
       </c>
       <c r="L21" s="1">
-        <v>5365.2</v>
+        <v>1393.2</v>
       </c>
       <c r="M21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="N21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="O21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="P21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="Q21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="R21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="S21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="T21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
       <c r="U21" s="1">
-        <v>8942</v>
+        <v>1393.2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="P22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="R22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="S22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="T22" s="1">
-        <v>1393.2</v>
-      </c>
-      <c r="U22" s="1">
-        <v>1393.2</v>
-      </c>
-    </row>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2871,7 +2804,6 @@
     <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
